--- a/Biochemistry/Hydroxyproline Assay/RecipeSheets/ElrichsReagent_soln_recipe.xlsx
+++ b/Biochemistry/Hydroxyproline Assay/RecipeSheets/ElrichsReagent_soln_recipe.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atya222\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atya222\Documents\GitHub\Protocols\Biochemistry\Hydroxyproline Assay\RecipeSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540D097D-C92C-4B14-8A62-AE85DDE8CD68}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD3695CD-1155-4C2D-A162-F0FADE6B9C11}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="500mL" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'500mL'!$A$1:$J$8</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'500mL'!$A$1:$J$13</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
 </workbook>
@@ -860,7 +860,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection sqref="A1:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1075,6 +1075,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100965EA08FA511AE4C9FFF632E6536ED13" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="abfa450e2c882fa05ec7f6a4b4016779">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a" xmlns:ns3="6cbc0c5a-d948-46e5-8624-1bad210f77c7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="53678093842f3275b6926b32e7a9c141" ns2:_="" ns3:_="">
     <xsd:import namespace="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a"/>
@@ -1297,22 +1312,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33AFEA7C-ECB0-4A51-9E17-02E120CDEEE9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6cbc0c5a-d948-46e5-8624-1bad210f77c7"/>
+    <ds:schemaRef ds:uri="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C3833AD-3BAD-44F9-A428-5312EFC8FF4F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A161E6A-5B3F-4912-ADEE-71AD0FF6FC00}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1329,29 +1354,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C3833AD-3BAD-44F9-A428-5312EFC8FF4F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33AFEA7C-ECB0-4A51-9E17-02E120CDEEE9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="6cbc0c5a-d948-46e5-8624-1bad210f77c7"/>
-    <ds:schemaRef ds:uri="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Biochemistry/Hydroxyproline Assay/RecipeSheets/ElrichsReagent_soln_recipe.xlsx
+++ b/Biochemistry/Hydroxyproline Assay/RecipeSheets/ElrichsReagent_soln_recipe.xlsx
@@ -1,29 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20405"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atya222\Documents\GitHub\Protocols\Biochemistry\Hydroxyproline Assay\RecipeSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD3695CD-1155-4C2D-A162-F0FADE6B9C11}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCB6AFC-D6DA-43A8-A5D7-7558658BB4FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="500mL" sheetId="1" r:id="rId1"/>
+    <sheet name="Nephrology" sheetId="1" r:id="rId1"/>
+    <sheet name="Brown, et al." sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'500mL'!$A$1:$J$13</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Brown, et al.'!$A$1:$K$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Nephrology!$A$1:$J$13</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="42">
   <si>
     <t>Made by</t>
   </si>
@@ -116,17 +118,84 @@
   </si>
   <si>
     <t>1.333g</t>
+  </si>
+  <si>
+    <t>isopropanol</t>
+  </si>
+  <si>
+    <t>50% perchloric acid</t>
+  </si>
+  <si>
+    <t>60% perchloric acid</t>
+  </si>
+  <si>
+    <t>Working Elrich's Reagent</t>
+  </si>
+  <si>
+    <t>Amount for
+50mL</t>
+  </si>
+  <si>
+    <t>Amount for
+25mL</t>
+  </si>
+  <si>
+    <t>Amount for
+10mL</t>
+  </si>
+  <si>
+    <r>
+      <t>diH</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>O</t>
+    </r>
+  </si>
+  <si>
+    <t>60% perchloric
+acid</t>
+  </si>
+  <si>
+    <t>50% perchloric
+acid</t>
+  </si>
+  <si>
+    <t>amount to make 50% PCA</t>
+  </si>
+  <si>
+    <t>add water to make up ΔV</t>
+  </si>
+  <si>
+    <t>isopronal 68mL to 10mL</t>
+  </si>
+  <si>
+    <t>DMAB 68mL to 10mL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -149,6 +218,24 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -158,7 +245,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -373,11 +460,179 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -421,9 +676,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -454,6 +706,104 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,6 +842,91 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{105B66BE-854A-402B-A711-F296CB352ED0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2257425" y="209550"/>
+          <a:ext cx="2266950" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Prepare</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> fresh before each assay.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08336CDA-3127-4ADF-A43F-64E40407CC45}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -857,10 +1292,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L4" sqref="L4:O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -877,25 +1312,25 @@
     <col min="10" max="10" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="27"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="26"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>2</v>
       </c>
@@ -927,7 +1362,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
@@ -936,7 +1371,7 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="11"/>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="20" t="s">
         <v>17</v>
       </c>
       <c r="H5" s="10" t="s">
@@ -946,52 +1381,56 @@
         <v>27</v>
       </c>
       <c r="J5" s="7"/>
-    </row>
-    <row r="6" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="L5" s="34"/>
+    </row>
+    <row r="6" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
-      <c r="F6" s="23"/>
+      <c r="F6" s="22"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
       <c r="J6" s="9"/>
-    </row>
-    <row r="7" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="L6" s="34"/>
+    </row>
+    <row r="7" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="27"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="L7" s="35"/>
+    </row>
+    <row r="8" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="27"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="26"/>
+      <c r="L8" s="35"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>2</v>
       </c>
@@ -1023,7 +1462,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1032,7 +1471,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="11"/>
-      <c r="G12" s="20" t="s">
+      <c r="G12" s="19" t="s">
         <v>15</v>
       </c>
       <c r="H12" s="10" t="s">
@@ -1043,26 +1482,27 @@
       </c>
       <c r="J12" s="7"/>
     </row>
-    <row r="13" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+    <row r="13" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="25" t="s">
+      <c r="F13" s="22"/>
+      <c r="G13" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="24" t="s">
+      <c r="H13" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="24" t="s">
+      <c r="I13" s="23" t="s">
         <v>23</v>
       </c>
       <c r="J13" s="9"/>
     </row>
+    <row r="14" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
@@ -1074,22 +1514,511 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80CE72D9-D82C-4122-9DDB-8298C9865356}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:P26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="9" max="10" width="10.85546875" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" customWidth="1"/>
+    <col min="15" max="15" width="10.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="26"/>
+    </row>
+    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4"/>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="51">
+        <f>50/68</f>
+        <v>0.73529411764705888</v>
+      </c>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="53"/>
+    </row>
+    <row r="5" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="40">
+        <v>4.5918000000000001</v>
+      </c>
+      <c r="I5" s="40">
+        <f>H5/2</f>
+        <v>2.2959000000000001</v>
+      </c>
+      <c r="J5" s="40">
+        <f>H5/5</f>
+        <v>0.91836000000000007</v>
+      </c>
+      <c r="K5" s="41"/>
+      <c r="M5" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5" s="47">
+        <v>6</v>
+      </c>
+      <c r="O5" s="55">
+        <f>N5*$M$4</f>
+        <v>4.4117647058823533</v>
+      </c>
+      <c r="P5" s="56"/>
+    </row>
+    <row r="6" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="32">
+        <v>39.795900000000003</v>
+      </c>
+      <c r="I6" s="40">
+        <f t="shared" ref="I6:I7" si="0">H6/2</f>
+        <v>19.897950000000002</v>
+      </c>
+      <c r="J6" s="40">
+        <f t="shared" ref="J6:J7" si="1">H6/5</f>
+        <v>7.9591800000000008</v>
+      </c>
+      <c r="K6" s="33"/>
+      <c r="M6" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="47">
+        <v>52</v>
+      </c>
+      <c r="O6" s="55">
+        <f t="shared" ref="O6:O8" si="2">N6*$M$4</f>
+        <v>38.235294117647058</v>
+      </c>
+      <c r="P6" s="56"/>
+    </row>
+    <row r="7" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="23">
+        <v>10.2041</v>
+      </c>
+      <c r="I7" s="23">
+        <f t="shared" si="0"/>
+        <v>5.1020500000000002</v>
+      </c>
+      <c r="J7" s="23">
+        <f t="shared" si="1"/>
+        <v>2.0408200000000001</v>
+      </c>
+      <c r="K7" s="9"/>
+      <c r="M7" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="47">
+        <v>16</v>
+      </c>
+      <c r="O7" s="55">
+        <f t="shared" si="2"/>
+        <v>11.764705882352942</v>
+      </c>
+      <c r="P7" s="56"/>
+    </row>
+    <row r="8" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="M8" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="N8" s="59">
+        <f>(0.5*16)/0.6</f>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="O8" s="60">
+        <f t="shared" si="2"/>
+        <v>9.8039215686274517</v>
+      </c>
+      <c r="P8" s="61">
+        <f>(0.5*O7)/0.6</f>
+        <v>9.8039215686274517</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="47"/>
+      <c r="B9" s="47"/>
+      <c r="O9" s="49"/>
+    </row>
+    <row r="10" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="26"/>
+      <c r="M10" s="51">
+        <f>(N6+N8)</f>
+        <v>65.333333333333329</v>
+      </c>
+      <c r="N10" s="52"/>
+      <c r="O10" s="62"/>
+      <c r="P10" s="53"/>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="M11" s="63">
+        <f>50/M10</f>
+        <v>0.76530612244897966</v>
+      </c>
+      <c r="N11" s="47"/>
+      <c r="O11" s="55"/>
+      <c r="P11" s="56"/>
+    </row>
+    <row r="12" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="M12" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="N12" s="47">
+        <v>6</v>
+      </c>
+      <c r="O12" s="55">
+        <f>N12*$M$11</f>
+        <v>4.591836734693878</v>
+      </c>
+      <c r="P12" s="56"/>
+    </row>
+    <row r="13" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="M13" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="N13" s="47">
+        <v>52</v>
+      </c>
+      <c r="O13" s="55">
+        <f t="shared" ref="O13:O15" si="3">N13*$M$11</f>
+        <v>39.795918367346943</v>
+      </c>
+      <c r="P13" s="56"/>
+    </row>
+    <row r="14" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="40">
+        <f>J14*5</f>
+        <v>4.4117647058823533</v>
+      </c>
+      <c r="I14" s="40">
+        <f>J14*2.5</f>
+        <v>2.2058823529411766</v>
+      </c>
+      <c r="J14" s="40">
+        <v>0.88235294117647056</v>
+      </c>
+      <c r="K14" s="41"/>
+      <c r="M14" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="N14" s="47">
+        <v>16</v>
+      </c>
+      <c r="O14" s="55">
+        <f t="shared" si="3"/>
+        <v>12.244897959183675</v>
+      </c>
+      <c r="P14" s="56"/>
+    </row>
+    <row r="15" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="32">
+        <f t="shared" ref="H15:H17" si="4">J15*5</f>
+        <v>38.235294117647058</v>
+      </c>
+      <c r="I15" s="40">
+        <f>J15*2.5</f>
+        <v>19.117647058823529</v>
+      </c>
+      <c r="J15" s="40">
+        <v>7.6470588235294121</v>
+      </c>
+      <c r="K15" s="33"/>
+      <c r="M15" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="N15" s="59">
+        <f>(0.5*16)/0.6</f>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="O15" s="60">
+        <f t="shared" si="3"/>
+        <v>10.204081632653063</v>
+      </c>
+      <c r="P15" s="61">
+        <f>(0.5*O14)/0.6</f>
+        <v>10.204081632653063</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="10">
+        <f t="shared" si="4"/>
+        <v>1.9607843137254899</v>
+      </c>
+      <c r="I16" s="10">
+        <f>J16*2.5</f>
+        <v>0.98039215686274495</v>
+      </c>
+      <c r="J16" s="10">
+        <v>0.39215686274509798</v>
+      </c>
+      <c r="K16" s="7"/>
+    </row>
+    <row r="17" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="23">
+        <f t="shared" si="4"/>
+        <v>9.8039215686274517</v>
+      </c>
+      <c r="I17" s="23">
+        <f>J17*2.5</f>
+        <v>4.9019607843137258</v>
+      </c>
+      <c r="J17" s="23">
+        <v>1.9607843137254903</v>
+      </c>
+      <c r="K17" s="9"/>
+      <c r="M17" s="66" t="s">
+        <v>37</v>
+      </c>
+      <c r="N17" s="52">
+        <v>16</v>
+      </c>
+      <c r="O17" s="52"/>
+      <c r="P17" s="53"/>
+    </row>
+    <row r="18" spans="1:16" ht="36" x14ac:dyDescent="0.2">
+      <c r="M18" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="N18" s="67">
+        <f>(10*16)/68</f>
+        <v>2.3529411764705883</v>
+      </c>
+      <c r="O18" s="68" t="s">
+        <v>38</v>
+      </c>
+      <c r="P18" s="56">
+        <f>(N18*0.5)/0.6</f>
+        <v>1.9607843137254903</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="H19" s="48"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="P19" s="56">
+        <f>N18-P18</f>
+        <v>0.39215686274509798</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M20" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="N20" s="47">
+        <f>(52*10)/68</f>
+        <v>7.6470588235294121</v>
+      </c>
+      <c r="O20" s="47"/>
+      <c r="P20" s="56"/>
+    </row>
+    <row r="21" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M21" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="N21" s="59">
+        <f>(6*10)/68</f>
+        <v>0.88235294117647056</v>
+      </c>
+      <c r="O21" s="59"/>
+      <c r="P21" s="70"/>
+    </row>
+    <row r="22" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A10:B10"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100965EA08FA511AE4C9FFF632E6536ED13" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="abfa450e2c882fa05ec7f6a4b4016779">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a" xmlns:ns3="6cbc0c5a-d948-46e5-8624-1bad210f77c7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="53678093842f3275b6926b32e7a9c141" ns2:_="" ns3:_="">
     <xsd:import namespace="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a"/>
@@ -1312,32 +2241,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33AFEA7C-ECB0-4A51-9E17-02E120CDEEE9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="6cbc0c5a-d948-46e5-8624-1bad210f77c7"/>
-    <ds:schemaRef ds:uri="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C3833AD-3BAD-44F9-A428-5312EFC8FF4F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A161E6A-5B3F-4912-ADEE-71AD0FF6FC00}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1354,4 +2273,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C3833AD-3BAD-44F9-A428-5312EFC8FF4F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33AFEA7C-ECB0-4A51-9E17-02E120CDEEE9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6cbc0c5a-d948-46e5-8624-1bad210f77c7"/>
+    <ds:schemaRef ds:uri="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Biochemistry/Hydroxyproline Assay/RecipeSheets/ElrichsReagent_soln_recipe.xlsx
+++ b/Biochemistry/Hydroxyproline Assay/RecipeSheets/ElrichsReagent_soln_recipe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atya222\Documents\GitHub\Protocols\Biochemistry\Hydroxyproline Assay\RecipeSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCB6AFC-D6DA-43A8-A5D7-7558658BB4FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EBE277B-9DDF-4569-B072-362DC3FE3421}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Brown, et al." sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Brown, et al.'!$A$1:$K$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Brown, et al.'!$A$10:$K$17</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Nephrology!$A$1:$J$13</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="44">
   <si>
     <t>Made by</t>
   </si>
@@ -124,9 +124,6 @@
   </si>
   <si>
     <t>50% perchloric acid</t>
-  </si>
-  <si>
-    <t>60% perchloric acid</t>
   </si>
   <si>
     <t>Working Elrich's Reagent</t>
@@ -166,17 +163,10 @@
     </r>
   </si>
   <si>
-    <t>60% perchloric
-acid</t>
-  </si>
-  <si>
     <t>50% perchloric
 acid</t>
   </si>
   <si>
-    <t>amount to make 50% PCA</t>
-  </si>
-  <si>
     <t>add water to make up ΔV</t>
   </si>
   <si>
@@ -184,6 +174,24 @@
   </si>
   <si>
     <t>DMAB 68mL to 10mL</t>
+  </si>
+  <si>
+    <t>70% Perchloric
+Acid</t>
+  </si>
+  <si>
+    <t>70% perchloric acid</t>
+  </si>
+  <si>
+    <t>70% perchloric
+acid</t>
+  </si>
+  <si>
+    <t>amount for
+10mL</t>
+  </si>
+  <si>
+    <t>amount for 10mL 50% PCA</t>
   </si>
 </sst>
 </file>
@@ -193,7 +201,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="167" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -632,7 +640,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -700,12 +708,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -766,7 +768,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -774,7 +776,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -783,9 +785,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -804,6 +806,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -911,15 +925,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
+      <xdr:colOff>647700</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -934,7 +948,87 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2257425" y="209550"/>
+          <a:off x="2324100" y="161925"/>
+          <a:ext cx="2266950" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Prepare</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> fresh before each assay.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06E02A8A-E909-4E3F-96E6-C044F271CE88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2333625" y="2857500"/>
           <a:ext cx="2266950" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1313,10 +1407,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="26"/>
+      <c r="B1" s="70"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -1381,7 +1475,7 @@
         <v>27</v>
       </c>
       <c r="J5" s="7"/>
-      <c r="L5" s="34"/>
+      <c r="L5" s="32"/>
     </row>
     <row r="6" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
@@ -1396,10 +1490,10 @@
       <c r="H6" s="23"/>
       <c r="I6" s="23"/>
       <c r="J6" s="9"/>
-      <c r="L6" s="34"/>
+      <c r="L6" s="32"/>
     </row>
     <row r="7" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="17"/>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -1409,14 +1503,14 @@
       <c r="H7" s="18"/>
       <c r="I7" s="18"/>
       <c r="J7" s="18"/>
-      <c r="L7" s="35"/>
+      <c r="L7" s="33"/>
     </row>
     <row r="8" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="L8" s="35"/>
+      <c r="B8" s="70"/>
+      <c r="L8" s="33"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
@@ -1520,10 +1614,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="A10" sqref="A10:K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1543,10 +1637,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="26"/>
+      <c r="A1" s="69" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="70"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -1561,118 +1655,118 @@
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="43" t="s">
+      <c r="G4" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="45" t="s">
+      <c r="H4" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="45" t="s">
+      <c r="J4" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" s="46" t="s">
+      <c r="K4" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="51">
+      <c r="M4" s="49">
         <f>50/68</f>
         <v>0.73529411764705888</v>
       </c>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="53"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="51"/>
     </row>
     <row r="5" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="40">
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="38">
         <v>4.5918000000000001</v>
       </c>
-      <c r="I5" s="40">
+      <c r="I5" s="38">
         <f>H5/2</f>
         <v>2.2959000000000001</v>
       </c>
-      <c r="J5" s="40">
+      <c r="J5" s="38">
         <f>H5/5</f>
         <v>0.91836000000000007</v>
       </c>
-      <c r="K5" s="41"/>
-      <c r="M5" s="54" t="s">
+      <c r="K5" s="39"/>
+      <c r="M5" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="47">
+      <c r="N5" s="45">
         <v>6</v>
       </c>
-      <c r="O5" s="55">
+      <c r="O5" s="53">
         <f>N5*$M$4</f>
         <v>4.4117647058823533</v>
       </c>
-      <c r="P5" s="56"/>
+      <c r="P5" s="54"/>
     </row>
     <row r="6" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="32">
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="30">
         <v>39.795900000000003</v>
       </c>
-      <c r="I6" s="40">
+      <c r="I6" s="38">
         <f t="shared" ref="I6:I7" si="0">H6/2</f>
         <v>19.897950000000002</v>
       </c>
-      <c r="J6" s="40">
+      <c r="J6" s="38">
         <f t="shared" ref="J6:J7" si="1">H6/5</f>
         <v>7.9591800000000008</v>
       </c>
-      <c r="K6" s="33"/>
-      <c r="M6" s="54" t="s">
+      <c r="K6" s="31"/>
+      <c r="M6" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="47">
+      <c r="N6" s="45">
         <v>52</v>
       </c>
-      <c r="O6" s="55">
+      <c r="O6" s="53">
         <f t="shared" ref="O6:O8" si="2">N6*$M$4</f>
         <v>38.235294117647058</v>
       </c>
-      <c r="P6" s="56"/>
+      <c r="P6" s="54"/>
     </row>
     <row r="7" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -1692,17 +1786,17 @@
         <v>2.0408200000000001</v>
       </c>
       <c r="K7" s="9"/>
-      <c r="M7" s="57" t="s">
+      <c r="M7" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="N7" s="47">
+      <c r="N7" s="45">
         <v>16</v>
       </c>
-      <c r="O7" s="55">
+      <c r="O7" s="53">
         <f t="shared" si="2"/>
         <v>11.764705882352942</v>
       </c>
-      <c r="P7" s="56"/>
+      <c r="P7" s="54"/>
     </row>
     <row r="8" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18"/>
@@ -1712,195 +1806,195 @@
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
-      <c r="H8" s="65"/>
+      <c r="H8" s="63"/>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
-      <c r="M8" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="N8" s="59">
-        <f>(0.5*16)/0.6</f>
-        <v>13.333333333333334</v>
-      </c>
-      <c r="O8" s="60">
+      <c r="M8" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="N8" s="57">
+        <f>(0.5*16)/0.7</f>
+        <v>11.428571428571429</v>
+      </c>
+      <c r="O8" s="58">
         <f t="shared" si="2"/>
-        <v>9.8039215686274517</v>
-      </c>
-      <c r="P8" s="61">
+        <v>8.4033613445378155</v>
+      </c>
+      <c r="P8" s="59">
         <f>(0.5*O7)/0.6</f>
         <v>9.8039215686274517</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="47"/>
-      <c r="B9" s="47"/>
-      <c r="O9" s="49"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="45"/>
+      <c r="O9" s="47"/>
     </row>
     <row r="10" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="26"/>
-      <c r="M10" s="51">
+      <c r="A10" s="69" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="70"/>
+      <c r="M10" s="49">
         <f>(N6+N8)</f>
-        <v>65.333333333333329</v>
-      </c>
-      <c r="N10" s="52"/>
-      <c r="O10" s="62"/>
-      <c r="P10" s="53"/>
+        <v>63.428571428571431</v>
+      </c>
+      <c r="N10" s="50"/>
+      <c r="O10" s="60"/>
+      <c r="P10" s="51"/>
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="M11" s="63">
+      <c r="M11" s="61">
         <f>50/M10</f>
-        <v>0.76530612244897966</v>
-      </c>
-      <c r="N11" s="47"/>
-      <c r="O11" s="55"/>
-      <c r="P11" s="56"/>
+        <v>0.78828828828828823</v>
+      </c>
+      <c r="N11" s="45"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="54"/>
     </row>
     <row r="12" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="M12" s="54" t="s">
+      <c r="M12" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="N12" s="47">
+      <c r="N12" s="45">
         <v>6</v>
       </c>
-      <c r="O12" s="55">
+      <c r="O12" s="53">
         <f>N12*$M$11</f>
-        <v>4.591836734693878</v>
-      </c>
-      <c r="P12" s="56"/>
+        <v>4.7297297297297298</v>
+      </c>
+      <c r="P12" s="54"/>
     </row>
     <row r="13" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="43" t="s">
+      <c r="D13" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="43" t="s">
+      <c r="E13" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="44" t="s">
+      <c r="F13" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="43" t="s">
+      <c r="G13" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="H13" s="45" t="s">
+      <c r="H13" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="I13" s="45" t="s">
+      <c r="J13" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="J13" s="45" t="s">
+      <c r="K13" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="M13" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="N13" s="45">
+        <v>52</v>
+      </c>
+      <c r="O13" s="53">
+        <f t="shared" ref="O13:O15" si="3">N13*$M$11</f>
+        <v>40.990990990990987</v>
+      </c>
+      <c r="P13" s="54"/>
+    </row>
+    <row r="14" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="38">
+        <f t="shared" ref="H14:H17" si="4">J14*5</f>
+        <v>4.4117647058823533</v>
+      </c>
+      <c r="I14" s="38">
+        <f t="shared" ref="I14:I17" si="5">J14*2.5</f>
+        <v>2.2058823529411766</v>
+      </c>
+      <c r="J14" s="38">
+        <v>0.88235294117647056</v>
+      </c>
+      <c r="K14" s="39"/>
+      <c r="M14" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="N14" s="45">
+        <v>16</v>
+      </c>
+      <c r="O14" s="53">
+        <f t="shared" si="3"/>
+        <v>12.612612612612612</v>
+      </c>
+      <c r="P14" s="54"/>
+    </row>
+    <row r="15" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="30">
+        <f t="shared" si="4"/>
+        <v>38.235294117647058</v>
+      </c>
+      <c r="I15" s="38">
+        <f t="shared" si="5"/>
+        <v>19.117647058823529</v>
+      </c>
+      <c r="J15" s="38">
+        <v>7.6470588235294121</v>
+      </c>
+      <c r="K15" s="31"/>
+      <c r="M15" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="N15" s="57">
+        <f>(0.5*16)/0.7</f>
+        <v>11.428571428571429</v>
+      </c>
+      <c r="O15" s="58">
+        <f>N15*$M$11</f>
+        <v>9.0090090090090094</v>
+      </c>
+      <c r="P15" s="59">
+        <f>(0.5*O14)/0.6</f>
+        <v>10.51051051051051</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="48" t="s">
         <v>34</v>
-      </c>
-      <c r="K13" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="M13" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="N13" s="47">
-        <v>52</v>
-      </c>
-      <c r="O13" s="55">
-        <f t="shared" ref="O13:O15" si="3">N13*$M$11</f>
-        <v>39.795918367346943</v>
-      </c>
-      <c r="P13" s="56"/>
-    </row>
-    <row r="14" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="40">
-        <f>J14*5</f>
-        <v>4.4117647058823533</v>
-      </c>
-      <c r="I14" s="40">
-        <f>J14*2.5</f>
-        <v>2.2058823529411766</v>
-      </c>
-      <c r="J14" s="40">
-        <v>0.88235294117647056</v>
-      </c>
-      <c r="K14" s="41"/>
-      <c r="M14" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="N14" s="47">
-        <v>16</v>
-      </c>
-      <c r="O14" s="55">
-        <f t="shared" si="3"/>
-        <v>12.244897959183675</v>
-      </c>
-      <c r="P14" s="56"/>
-    </row>
-    <row r="15" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="32">
-        <f t="shared" ref="H15:H17" si="4">J15*5</f>
-        <v>38.235294117647058</v>
-      </c>
-      <c r="I15" s="40">
-        <f>J15*2.5</f>
-        <v>19.117647058823529</v>
-      </c>
-      <c r="J15" s="40">
-        <v>7.6470588235294121</v>
-      </c>
-      <c r="K15" s="33"/>
-      <c r="M15" s="64" t="s">
-        <v>30</v>
-      </c>
-      <c r="N15" s="59">
-        <f>(0.5*16)/0.6</f>
-        <v>13.333333333333334</v>
-      </c>
-      <c r="O15" s="60">
-        <f t="shared" si="3"/>
-        <v>10.204081632653063</v>
-      </c>
-      <c r="P15" s="61">
-        <f>(0.5*O14)/0.6</f>
-        <v>10.204081632653063</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="50" t="s">
-        <v>35</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -1910,20 +2004,20 @@
       <c r="G16" s="6"/>
       <c r="H16" s="10">
         <f t="shared" si="4"/>
-        <v>1.9607843137254899</v>
+        <v>3.3613445378151252</v>
       </c>
       <c r="I16" s="10">
-        <f>J16*2.5</f>
-        <v>0.98039215686274495</v>
+        <f t="shared" si="5"/>
+        <v>1.6806722689075626</v>
       </c>
       <c r="J16" s="10">
-        <v>0.39215686274509798</v>
+        <v>0.67226890756302504</v>
       </c>
       <c r="K16" s="7"/>
     </row>
-    <row r="17" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -1933,80 +2027,89 @@
       <c r="G17" s="8"/>
       <c r="H17" s="23">
         <f t="shared" si="4"/>
-        <v>9.8039215686274517</v>
+        <v>8.4033613445378172</v>
       </c>
       <c r="I17" s="23">
-        <f>J17*2.5</f>
-        <v>4.9019607843137258</v>
+        <f t="shared" si="5"/>
+        <v>4.2016806722689086</v>
       </c>
       <c r="J17" s="23">
-        <v>1.9607843137254903</v>
+        <v>1.6806722689075633</v>
       </c>
       <c r="K17" s="9"/>
-      <c r="M17" s="66" t="s">
-        <v>37</v>
-      </c>
-      <c r="N17" s="52">
+      <c r="M17" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="N17" s="50">
         <v>16</v>
       </c>
-      <c r="O17" s="52"/>
-      <c r="P17" s="53"/>
-    </row>
-    <row r="18" spans="1:16" ht="36" x14ac:dyDescent="0.2">
-      <c r="M18" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="N18" s="67">
+      <c r="O17" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="P17" s="51">
         <f>(10*16)/68</f>
         <v>2.3529411764705883</v>
       </c>
-      <c r="O18" s="68" t="s">
-        <v>38</v>
-      </c>
-      <c r="P18" s="56">
-        <f>(N18*0.5)/0.6</f>
-        <v>1.9607843137254903</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="H19" s="48"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="69" t="s">
-        <v>39</v>
-      </c>
-      <c r="P19" s="56">
-        <f>N18-P18</f>
-        <v>0.39215686274509798</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M20" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="N20" s="47">
+    </row>
+    <row r="18" spans="1:17" ht="36" x14ac:dyDescent="0.2">
+      <c r="M18" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="N18" s="65">
+        <f>(16*0.5)/0.7</f>
+        <v>11.428571428571429</v>
+      </c>
+      <c r="O18" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="P18" s="54">
+        <f>(P17*0.5)/0.7</f>
+        <v>1.6806722689075633</v>
+      </c>
+      <c r="Q18" s="72"/>
+    </row>
+    <row r="19" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="H19" s="46"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="45">
+        <f>N17-N18</f>
+        <v>4.5714285714285712</v>
+      </c>
+      <c r="O19" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="P19" s="54">
+        <f>P17-P18</f>
+        <v>0.67226890756302504</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M20" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="N20" s="45">
         <f>(52*10)/68</f>
         <v>7.6470588235294121</v>
       </c>
-      <c r="O20" s="47"/>
-      <c r="P20" s="56"/>
-    </row>
-    <row r="21" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M21" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="N21" s="59">
+      <c r="O20" s="45"/>
+      <c r="P20" s="54"/>
+    </row>
+    <row r="21" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M21" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="N21" s="57">
         <f>(6*10)/68</f>
         <v>0.88235294117647056</v>
       </c>
-      <c r="O21" s="59"/>
-      <c r="P21" s="70"/>
-    </row>
-    <row r="22" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="O21" s="57"/>
+      <c r="P21" s="68"/>
+    </row>
+    <row r="22" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
@@ -2019,6 +2122,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100965EA08FA511AE4C9FFF632E6536ED13" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="abfa450e2c882fa05ec7f6a4b4016779">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a" xmlns:ns3="6cbc0c5a-d948-46e5-8624-1bad210f77c7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="53678093842f3275b6926b32e7a9c141" ns2:_="" ns3:_="">
     <xsd:import namespace="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a"/>
@@ -2241,22 +2359,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33AFEA7C-ECB0-4A51-9E17-02E120CDEEE9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6cbc0c5a-d948-46e5-8624-1bad210f77c7"/>
+    <ds:schemaRef ds:uri="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C3833AD-3BAD-44F9-A428-5312EFC8FF4F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A161E6A-5B3F-4912-ADEE-71AD0FF6FC00}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2273,29 +2401,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C3833AD-3BAD-44F9-A428-5312EFC8FF4F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33AFEA7C-ECB0-4A51-9E17-02E120CDEEE9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="6cbc0c5a-d948-46e5-8624-1bad210f77c7"/>
-    <ds:schemaRef ds:uri="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Biochemistry/Hydroxyproline Assay/RecipeSheets/ElrichsReagent_soln_recipe.xlsx
+++ b/Biochemistry/Hydroxyproline Assay/RecipeSheets/ElrichsReagent_soln_recipe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atya222\Documents\GitHub\Protocols\Biochemistry\Hydroxyproline Assay\RecipeSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EBE277B-9DDF-4569-B072-362DC3FE3421}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AACBECF-CF64-4097-AA04-9358D75E987E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -806,17 +806,17 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1407,10 +1407,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="70"/>
+      <c r="B1" s="72"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -1506,10 +1506,10 @@
       <c r="L7" s="33"/>
     </row>
     <row r="8" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="70"/>
+      <c r="B8" s="72"/>
       <c r="L8" s="33"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1637,10 +1637,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="70"/>
+      <c r="B1" s="72"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -1832,10 +1832,10 @@
       <c r="O9" s="47"/>
     </row>
     <row r="10" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="69" t="s">
+      <c r="A10" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="70"/>
+      <c r="B10" s="72"/>
       <c r="M10" s="49">
         <f>(N6+N8)</f>
         <v>63.428571428571431</v>
@@ -1915,7 +1915,7 @@
         <v>52</v>
       </c>
       <c r="O13" s="53">
-        <f t="shared" ref="O13:O15" si="3">N13*$M$11</f>
+        <f t="shared" ref="O13:O14" si="3">N13*$M$11</f>
         <v>40.990990990990987</v>
       </c>
       <c r="P13" s="54"/>
@@ -2043,7 +2043,7 @@
       <c r="N17" s="50">
         <v>16</v>
       </c>
-      <c r="O17" s="71" t="s">
+      <c r="O17" s="69" t="s">
         <v>42</v>
       </c>
       <c r="P17" s="51">
@@ -2066,7 +2066,7 @@
         <f>(P17*0.5)/0.7</f>
         <v>1.6806722689075633</v>
       </c>
-      <c r="Q18" s="72"/>
+      <c r="Q18" s="70"/>
     </row>
     <row r="19" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="H19" s="46"/>
@@ -2122,21 +2122,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100965EA08FA511AE4C9FFF632E6536ED13" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="abfa450e2c882fa05ec7f6a4b4016779">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a" xmlns:ns3="6cbc0c5a-d948-46e5-8624-1bad210f77c7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="53678093842f3275b6926b32e7a9c141" ns2:_="" ns3:_="">
     <xsd:import namespace="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a"/>
@@ -2359,32 +2344,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33AFEA7C-ECB0-4A51-9E17-02E120CDEEE9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="6cbc0c5a-d948-46e5-8624-1bad210f77c7"/>
-    <ds:schemaRef ds:uri="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C3833AD-3BAD-44F9-A428-5312EFC8FF4F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A161E6A-5B3F-4912-ADEE-71AD0FF6FC00}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2401,4 +2376,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C3833AD-3BAD-44F9-A428-5312EFC8FF4F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33AFEA7C-ECB0-4A51-9E17-02E120CDEEE9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6cbc0c5a-d948-46e5-8624-1bad210f77c7"/>
+    <ds:schemaRef ds:uri="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Biochemistry/Hydroxyproline Assay/RecipeSheets/ElrichsReagent_soln_recipe.xlsx
+++ b/Biochemistry/Hydroxyproline Assay/RecipeSheets/ElrichsReagent_soln_recipe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atya222\Documents\GitHub\Protocols\Biochemistry\Hydroxyproline Assay\RecipeSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AACBECF-CF64-4097-AA04-9358D75E987E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B155C461-A614-410D-A25A-60EA399F9657}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Brown, et al." sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Brown, et al.'!$A$10:$K$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Brown, et al.'!$A$10:$L$17</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Nephrology!$A$1:$J$13</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="47">
   <si>
     <t>Made by</t>
   </si>
@@ -193,6 +193,15 @@
   <si>
     <t>amount for 10mL 50% PCA</t>
   </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>mg</t>
+  </si>
+  <si>
+    <t>mL</t>
+  </si>
 </sst>
 </file>
 
@@ -203,7 +212,7 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -244,6 +253,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -253,7 +268,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -636,11 +651,70 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -817,6 +891,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1614,10 +1706,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:K17"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1631,30 +1723,31 @@
     <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.85546875" customWidth="1"/>
     <col min="9" max="10" width="10.85546875" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" customWidth="1"/>
-    <col min="14" max="14" width="10.85546875" customWidth="1"/>
-    <col min="15" max="15" width="10.28515625" customWidth="1"/>
+    <col min="11" max="11" width="4.7109375" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" customWidth="1"/>
+    <col min="16" max="16" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="71" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="72"/>
     </row>
-    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4"/>
     </row>
-    <row r="3" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
         <v>2</v>
       </c>
@@ -1685,18 +1778,21 @@
       <c r="J4" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="44" t="s">
+      <c r="K4" s="77" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="49">
+      <c r="N4" s="49">
         <f>50/68</f>
         <v>0.73529411764705888</v>
       </c>
-      <c r="N4" s="50"/>
       <c r="O4" s="50"/>
-      <c r="P4" s="51"/>
-    </row>
-    <row r="5" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P4" s="50"/>
+      <c r="Q4" s="51"/>
+    </row>
+    <row r="5" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="34" t="s">
         <v>11</v>
       </c>
@@ -1717,20 +1813,23 @@
         <f>H5/5</f>
         <v>0.91836000000000007</v>
       </c>
-      <c r="K5" s="39"/>
-      <c r="M5" s="52" t="s">
+      <c r="K5" s="73" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" s="39"/>
+      <c r="N5" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="45">
+      <c r="O5" s="45">
         <v>6</v>
       </c>
-      <c r="O5" s="53">
-        <f>N5*$M$4</f>
+      <c r="P5" s="53">
+        <f>O5*$N$4</f>
         <v>4.4117647058823533</v>
       </c>
-      <c r="P5" s="54"/>
-    </row>
-    <row r="6" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q5" s="54"/>
+    </row>
+    <row r="6" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
         <v>14</v>
       </c>
@@ -1751,20 +1850,23 @@
         <f t="shared" ref="J6:J7" si="1">H6/5</f>
         <v>7.9591800000000008</v>
       </c>
-      <c r="K6" s="31"/>
-      <c r="M6" s="52" t="s">
+      <c r="K6" s="74" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" s="31"/>
+      <c r="N6" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="45">
+      <c r="O6" s="45">
         <v>52</v>
       </c>
-      <c r="O6" s="53">
-        <f t="shared" ref="O6:O8" si="2">N6*$M$4</f>
+      <c r="P6" s="53">
+        <f t="shared" ref="P6:P8" si="2">O6*$N$4</f>
         <v>38.235294117647058</v>
       </c>
-      <c r="P6" s="54"/>
-    </row>
-    <row r="7" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q6" s="54"/>
+    </row>
+    <row r="7" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>39</v>
       </c>
@@ -1785,20 +1887,23 @@
         <f t="shared" si="1"/>
         <v>2.0408200000000001</v>
       </c>
-      <c r="K7" s="9"/>
-      <c r="M7" s="55" t="s">
+      <c r="K7" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" s="9"/>
+      <c r="N7" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="N7" s="45">
+      <c r="O7" s="45">
         <v>16</v>
       </c>
-      <c r="O7" s="53">
+      <c r="P7" s="53">
         <f t="shared" si="2"/>
         <v>11.764705882352942</v>
       </c>
-      <c r="P7" s="54"/>
-    </row>
-    <row r="8" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q7" s="54"/>
+    </row>
+    <row r="8" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18"/>
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
@@ -1810,71 +1915,72 @@
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
-      <c r="M8" s="56" t="s">
+      <c r="L8" s="18"/>
+      <c r="N8" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="N8" s="57">
+      <c r="O8" s="57">
         <f>(0.5*16)/0.7</f>
         <v>11.428571428571429</v>
       </c>
-      <c r="O8" s="58">
+      <c r="P8" s="58">
         <f t="shared" si="2"/>
         <v>8.4033613445378155</v>
       </c>
-      <c r="P8" s="59">
-        <f>(0.5*O7)/0.6</f>
+      <c r="Q8" s="59">
+        <f>(0.5*P7)/0.6</f>
         <v>9.8039215686274517</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="45"/>
       <c r="B9" s="45"/>
-      <c r="O9" s="47"/>
-    </row>
-    <row r="10" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P9" s="47"/>
+    </row>
+    <row r="10" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="71" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="72"/>
-      <c r="M10" s="49">
-        <f>(N6+N8)</f>
+      <c r="N10" s="49">
+        <f>(O6+O8)</f>
         <v>63.428571428571431</v>
       </c>
-      <c r="N10" s="50"/>
-      <c r="O10" s="60"/>
-      <c r="P10" s="51"/>
-    </row>
-    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O10" s="50"/>
+      <c r="P10" s="60"/>
+      <c r="Q10" s="51"/>
+    </row>
+    <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="M11" s="61">
-        <f>50/M10</f>
+      <c r="N11" s="61">
+        <f>50/N10</f>
         <v>0.78828828828828823</v>
       </c>
-      <c r="N11" s="45"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="54"/>
-    </row>
-    <row r="12" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O11" s="45"/>
+      <c r="P11" s="53"/>
+      <c r="Q11" s="54"/>
+    </row>
+    <row r="12" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="M12" s="52" t="s">
+      <c r="N12" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="N12" s="45">
+      <c r="O12" s="45">
         <v>6</v>
       </c>
-      <c r="O12" s="53">
-        <f>N12*$M$11</f>
+      <c r="P12" s="53">
+        <f>O12*$N$11</f>
         <v>4.7297297297297298</v>
       </c>
-      <c r="P12" s="54"/>
-    </row>
-    <row r="13" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q12" s="54"/>
+    </row>
+    <row r="13" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="40" t="s">
         <v>2</v>
       </c>
@@ -1905,22 +2011,25 @@
       <c r="J13" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="K13" s="44" t="s">
+      <c r="K13" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="L13" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="M13" s="52" t="s">
+      <c r="N13" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="N13" s="45">
+      <c r="O13" s="45">
         <v>52</v>
       </c>
-      <c r="O13" s="53">
-        <f t="shared" ref="O13:O14" si="3">N13*$M$11</f>
+      <c r="P13" s="53">
+        <f t="shared" ref="P13:P14" si="3">O13*$N$11</f>
         <v>40.990990990990987</v>
       </c>
-      <c r="P13" s="54"/>
-    </row>
-    <row r="14" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q13" s="54"/>
+    </row>
+    <row r="14" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="34" t="s">
         <v>11</v>
       </c>
@@ -1941,20 +2050,23 @@
       <c r="J14" s="38">
         <v>0.88235294117647056</v>
       </c>
-      <c r="K14" s="39"/>
-      <c r="M14" s="55" t="s">
+      <c r="K14" s="73" t="s">
+        <v>45</v>
+      </c>
+      <c r="L14" s="39"/>
+      <c r="N14" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="N14" s="45">
+      <c r="O14" s="45">
         <v>16</v>
       </c>
-      <c r="O14" s="53">
+      <c r="P14" s="53">
         <f t="shared" si="3"/>
         <v>12.612612612612612</v>
       </c>
-      <c r="P14" s="54"/>
-    </row>
-    <row r="15" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q14" s="54"/>
+    </row>
+    <row r="15" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
         <v>14</v>
       </c>
@@ -1975,24 +2087,27 @@
       <c r="J15" s="38">
         <v>7.6470588235294121</v>
       </c>
-      <c r="K15" s="31"/>
-      <c r="M15" s="62" t="s">
+      <c r="K15" s="74" t="s">
+        <v>46</v>
+      </c>
+      <c r="L15" s="31"/>
+      <c r="N15" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="N15" s="57">
+      <c r="O15" s="57">
         <f>(0.5*16)/0.7</f>
         <v>11.428571428571429</v>
       </c>
-      <c r="O15" s="58">
-        <f>N15*$M$11</f>
+      <c r="P15" s="58">
+        <f>O15*$N$11</f>
         <v>9.0090090090090094</v>
       </c>
-      <c r="P15" s="59">
-        <f>(0.5*O14)/0.6</f>
+      <c r="Q15" s="59">
+        <f>(0.5*P14)/0.6</f>
         <v>10.51051051051051</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="48" t="s">
         <v>34</v>
       </c>
@@ -2013,9 +2128,12 @@
       <c r="J16" s="10">
         <v>0.67226890756302504</v>
       </c>
-      <c r="K16" s="7"/>
-    </row>
-    <row r="17" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K16" s="76" t="s">
+        <v>46</v>
+      </c>
+      <c r="L16" s="7"/>
+    </row>
+    <row r="17" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
         <v>39</v>
       </c>
@@ -2036,80 +2154,83 @@
       <c r="J17" s="23">
         <v>1.6806722689075633</v>
       </c>
-      <c r="K17" s="9"/>
-      <c r="M17" s="64" t="s">
+      <c r="K17" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="L17" s="9"/>
+      <c r="N17" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="N17" s="50">
+      <c r="O17" s="50">
         <v>16</v>
       </c>
-      <c r="O17" s="69" t="s">
+      <c r="P17" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="P17" s="51">
+      <c r="Q17" s="51">
         <f>(10*16)/68</f>
         <v>2.3529411764705883</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="36" x14ac:dyDescent="0.2">
-      <c r="M18" s="55" t="s">
+    <row r="18" spans="1:18" ht="36" x14ac:dyDescent="0.2">
+      <c r="N18" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="N18" s="65">
+      <c r="O18" s="65">
         <f>(16*0.5)/0.7</f>
         <v>11.428571428571429</v>
       </c>
-      <c r="O18" s="66" t="s">
+      <c r="P18" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="P18" s="54">
-        <f>(P17*0.5)/0.7</f>
+      <c r="Q18" s="54">
+        <f>(Q17*0.5)/0.7</f>
         <v>1.6806722689075633</v>
       </c>
-      <c r="Q18" s="70"/>
-    </row>
-    <row r="19" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="R18" s="70"/>
+    </row>
+    <row r="19" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="H19" s="46"/>
-      <c r="M19" s="61"/>
-      <c r="N19" s="45">
-        <f>N17-N18</f>
+      <c r="N19" s="61"/>
+      <c r="O19" s="45">
+        <f>O17-O18</f>
         <v>4.5714285714285712</v>
       </c>
-      <c r="O19" s="67" t="s">
+      <c r="P19" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="P19" s="54">
-        <f>P17-P18</f>
+      <c r="Q19" s="54">
+        <f>Q17-Q18</f>
         <v>0.67226890756302504</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M20" s="55" t="s">
+    <row r="20" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N20" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="N20" s="45">
+      <c r="O20" s="45">
         <f>(52*10)/68</f>
         <v>7.6470588235294121</v>
       </c>
-      <c r="O20" s="45"/>
-      <c r="P20" s="54"/>
-    </row>
-    <row r="21" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M21" s="56" t="s">
+      <c r="P20" s="45"/>
+      <c r="Q20" s="54"/>
+    </row>
+    <row r="21" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N21" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="N21" s="57">
+      <c r="O21" s="57">
         <f>(6*10)/68</f>
         <v>0.88235294117647056</v>
       </c>
-      <c r="O21" s="57"/>
-      <c r="P21" s="68"/>
-    </row>
-    <row r="22" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="P21" s="57"/>
+      <c r="Q21" s="68"/>
+    </row>
+    <row r="22" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
@@ -2122,6 +2243,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100965EA08FA511AE4C9FFF632E6536ED13" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="abfa450e2c882fa05ec7f6a4b4016779">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a" xmlns:ns3="6cbc0c5a-d948-46e5-8624-1bad210f77c7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="53678093842f3275b6926b32e7a9c141" ns2:_="" ns3:_="">
     <xsd:import namespace="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a"/>
@@ -2344,22 +2480,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33AFEA7C-ECB0-4A51-9E17-02E120CDEEE9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6cbc0c5a-d948-46e5-8624-1bad210f77c7"/>
+    <ds:schemaRef ds:uri="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C3833AD-3BAD-44F9-A428-5312EFC8FF4F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A161E6A-5B3F-4912-ADEE-71AD0FF6FC00}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2376,29 +2522,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C3833AD-3BAD-44F9-A428-5312EFC8FF4F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33AFEA7C-ECB0-4A51-9E17-02E120CDEEE9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="6cbc0c5a-d948-46e5-8624-1bad210f77c7"/>
-    <ds:schemaRef ds:uri="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Biochemistry/Hydroxyproline Assay/RecipeSheets/ElrichsReagent_soln_recipe.xlsx
+++ b/Biochemistry/Hydroxyproline Assay/RecipeSheets/ElrichsReagent_soln_recipe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atya222\Documents\GitHub\Protocols\Biochemistry\Hydroxyproline Assay\RecipeSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B155C461-A614-410D-A25A-60EA399F9657}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402EB9EF-F12C-47F3-B84C-6C2B9B16D9E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Brown, et al." sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Brown, et al.'!$A$10:$L$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Brown, et al.'!$A$10:$M$17</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Nephrology!$A$1:$J$13</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="48">
   <si>
     <t>Made by</t>
   </si>
@@ -201,6 +201,10 @@
   </si>
   <si>
     <t>mL</t>
+  </si>
+  <si>
+    <t>Amount for
+15mL</t>
   </si>
 </sst>
 </file>
@@ -886,29 +890,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1499,10 +1503,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="72"/>
+      <c r="B1" s="78"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -1598,10 +1602,10 @@
       <c r="L7" s="33"/>
     </row>
     <row r="8" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="72"/>
+      <c r="B8" s="78"/>
       <c r="L8" s="33"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1706,10 +1710,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R26"/>
+  <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1722,32 +1726,32 @@
     <col min="6" max="6" width="10.140625" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.85546875" customWidth="1"/>
-    <col min="9" max="10" width="10.85546875" customWidth="1"/>
-    <col min="11" max="11" width="4.7109375" customWidth="1"/>
-    <col min="12" max="12" width="17.28515625" customWidth="1"/>
-    <col min="15" max="15" width="10.85546875" customWidth="1"/>
-    <col min="16" max="16" width="10.28515625" customWidth="1"/>
+    <col min="9" max="11" width="10.85546875" customWidth="1"/>
+    <col min="12" max="12" width="4.7109375" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" customWidth="1"/>
+    <col min="17" max="17" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+    <row r="1" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="72"/>
-    </row>
-    <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="78"/>
+    </row>
+    <row r="2" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4"/>
     </row>
-    <row r="3" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
         <v>2</v>
       </c>
@@ -1776,23 +1780,26 @@
         <v>32</v>
       </c>
       <c r="J4" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="L4" s="75" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="44" t="s">
+      <c r="M4" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="49">
+      <c r="O4" s="49">
         <f>50/68</f>
         <v>0.73529411764705888</v>
       </c>
-      <c r="O4" s="50"/>
       <c r="P4" s="50"/>
-      <c r="Q4" s="51"/>
-    </row>
-    <row r="5" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q4" s="50"/>
+      <c r="R4" s="51"/>
+    </row>
+    <row r="5" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="34" t="s">
         <v>11</v>
       </c>
@@ -1802,34 +1809,27 @@
       <c r="E5" s="35"/>
       <c r="F5" s="36"/>
       <c r="G5" s="37"/>
-      <c r="H5" s="38">
-        <v>4.5918000000000001</v>
-      </c>
-      <c r="I5" s="38">
-        <f>H5/2</f>
-        <v>2.2959000000000001</v>
-      </c>
-      <c r="J5" s="38">
-        <f>H5/5</f>
-        <v>0.91836000000000007</v>
-      </c>
-      <c r="K5" s="73" t="s">
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="L5" s="39"/>
-      <c r="N5" s="52" t="s">
+      <c r="M5" s="39"/>
+      <c r="O5" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="O5" s="45">
+      <c r="P5" s="45">
         <v>6</v>
       </c>
-      <c r="P5" s="53">
-        <f>O5*$N$4</f>
+      <c r="Q5" s="53">
+        <f>P5*$O$4</f>
         <v>4.4117647058823533</v>
       </c>
-      <c r="Q5" s="54"/>
-    </row>
-    <row r="6" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R5" s="54"/>
+    </row>
+    <row r="6" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
         <v>14</v>
       </c>
@@ -1839,34 +1839,27 @@
       <c r="E6" s="27"/>
       <c r="F6" s="28"/>
       <c r="G6" s="29"/>
-      <c r="H6" s="30">
-        <v>39.795900000000003</v>
-      </c>
-      <c r="I6" s="38">
-        <f t="shared" ref="I6:I7" si="0">H6/2</f>
-        <v>19.897950000000002</v>
-      </c>
-      <c r="J6" s="38">
-        <f t="shared" ref="J6:J7" si="1">H6/5</f>
-        <v>7.9591800000000008</v>
-      </c>
-      <c r="K6" s="74" t="s">
+      <c r="H6" s="30"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="L6" s="31"/>
-      <c r="N6" s="52" t="s">
+      <c r="M6" s="31"/>
+      <c r="O6" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="O6" s="45">
+      <c r="P6" s="45">
         <v>52</v>
       </c>
-      <c r="P6" s="53">
-        <f t="shared" ref="P6:P8" si="2">O6*$N$4</f>
+      <c r="Q6" s="53">
+        <f t="shared" ref="Q6:Q8" si="0">P6*$O$4</f>
         <v>38.235294117647058</v>
       </c>
-      <c r="Q6" s="54"/>
-    </row>
-    <row r="7" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R6" s="54"/>
+    </row>
+    <row r="7" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>39</v>
       </c>
@@ -1876,34 +1869,27 @@
       <c r="E7" s="8"/>
       <c r="F7" s="22"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="23">
-        <v>10.2041</v>
-      </c>
-      <c r="I7" s="23">
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="73" t="s">
+        <v>46</v>
+      </c>
+      <c r="M7" s="9"/>
+      <c r="O7" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="P7" s="45">
+        <v>16</v>
+      </c>
+      <c r="Q7" s="53">
         <f t="shared" si="0"/>
-        <v>5.1020500000000002</v>
-      </c>
-      <c r="J7" s="23">
-        <f t="shared" si="1"/>
-        <v>2.0408200000000001</v>
-      </c>
-      <c r="K7" s="75" t="s">
-        <v>46</v>
-      </c>
-      <c r="L7" s="9"/>
-      <c r="N7" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="O7" s="45">
-        <v>16</v>
-      </c>
-      <c r="P7" s="53">
-        <f t="shared" si="2"/>
         <v>11.764705882352942</v>
       </c>
-      <c r="Q7" s="54"/>
-    </row>
-    <row r="8" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R7" s="54"/>
+    </row>
+    <row r="8" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18"/>
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
@@ -1916,71 +1902,72 @@
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
       <c r="L8" s="18"/>
-      <c r="N8" s="56" t="s">
+      <c r="M8" s="18"/>
+      <c r="O8" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="O8" s="57">
+      <c r="P8" s="57">
         <f>(0.5*16)/0.7</f>
         <v>11.428571428571429</v>
       </c>
-      <c r="P8" s="58">
-        <f t="shared" si="2"/>
+      <c r="Q8" s="58">
+        <f t="shared" si="0"/>
         <v>8.4033613445378155</v>
       </c>
-      <c r="Q8" s="59">
-        <f>(0.5*P7)/0.6</f>
+      <c r="R8" s="59">
+        <f>(0.5*Q7)/0.6</f>
         <v>9.8039215686274517</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="45"/>
       <c r="B9" s="45"/>
-      <c r="P9" s="47"/>
-    </row>
-    <row r="10" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="71" t="s">
+      <c r="Q9" s="47"/>
+    </row>
+    <row r="10" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="72"/>
-      <c r="N10" s="49">
-        <f>(O6+O8)</f>
+      <c r="B10" s="78"/>
+      <c r="O10" s="49">
+        <f>(P6+P8)</f>
         <v>63.428571428571431</v>
       </c>
-      <c r="O10" s="50"/>
-      <c r="P10" s="60"/>
-      <c r="Q10" s="51"/>
-    </row>
-    <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P10" s="50"/>
+      <c r="Q10" s="60"/>
+      <c r="R10" s="51"/>
+    </row>
+    <row r="11" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="N11" s="61">
-        <f>50/N10</f>
+      <c r="O11" s="61">
+        <f>50/O10</f>
         <v>0.78828828828828823</v>
       </c>
-      <c r="O11" s="45"/>
-      <c r="P11" s="53"/>
-      <c r="Q11" s="54"/>
-    </row>
-    <row r="12" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P11" s="45"/>
+      <c r="Q11" s="53"/>
+      <c r="R11" s="54"/>
+    </row>
+    <row r="12" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="N12" s="52" t="s">
+      <c r="O12" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="O12" s="45">
+      <c r="P12" s="45">
         <v>6</v>
       </c>
-      <c r="P12" s="53">
-        <f>O12*$N$11</f>
+      <c r="Q12" s="53">
+        <f>P12*$O$11</f>
         <v>4.7297297297297298</v>
       </c>
-      <c r="Q12" s="54"/>
-    </row>
-    <row r="13" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R12" s="54"/>
+    </row>
+    <row r="13" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="40" t="s">
         <v>2</v>
       </c>
@@ -2009,27 +1996,30 @@
         <v>32</v>
       </c>
       <c r="J13" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="K13" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="K13" s="78" t="s">
+      <c r="L13" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="L13" s="44" t="s">
+      <c r="M13" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="N13" s="52" t="s">
+      <c r="O13" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="O13" s="45">
+      <c r="P13" s="45">
         <v>52</v>
       </c>
-      <c r="P13" s="53">
-        <f t="shared" ref="P13:P14" si="3">O13*$N$11</f>
+      <c r="Q13" s="53">
+        <f t="shared" ref="Q13:Q14" si="1">P13*$O$11</f>
         <v>40.990990990990987</v>
       </c>
-      <c r="Q13" s="54"/>
-    </row>
-    <row r="14" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R13" s="54"/>
+    </row>
+    <row r="14" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="34" t="s">
         <v>11</v>
       </c>
@@ -2040,33 +2030,37 @@
       <c r="F14" s="36"/>
       <c r="G14" s="37"/>
       <c r="H14" s="38">
-        <f t="shared" ref="H14:H17" si="4">J14*5</f>
+        <f t="shared" ref="H14:H17" si="2">K14*5</f>
         <v>4.4117647058823533</v>
       </c>
       <c r="I14" s="38">
-        <f t="shared" ref="I14:I17" si="5">J14*2.5</f>
+        <f>K14*2.5</f>
         <v>2.2058823529411766</v>
       </c>
       <c r="J14" s="38">
+        <f>K14*1.5</f>
+        <v>1.3235294117647058</v>
+      </c>
+      <c r="K14" s="38">
         <v>0.88235294117647056</v>
       </c>
-      <c r="K14" s="73" t="s">
+      <c r="L14" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="L14" s="39"/>
-      <c r="N14" s="55" t="s">
+      <c r="M14" s="39"/>
+      <c r="O14" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="O14" s="45">
+      <c r="P14" s="45">
         <v>16</v>
       </c>
-      <c r="P14" s="53">
-        <f t="shared" si="3"/>
+      <c r="Q14" s="53">
+        <f t="shared" si="1"/>
         <v>12.612612612612612</v>
       </c>
-      <c r="Q14" s="54"/>
-    </row>
-    <row r="15" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R14" s="54"/>
+    </row>
+    <row r="15" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
         <v>14</v>
       </c>
@@ -2077,37 +2071,41 @@
       <c r="F15" s="28"/>
       <c r="G15" s="29"/>
       <c r="H15" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>38.235294117647058</v>
       </c>
       <c r="I15" s="38">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="I14:I17" si="3">K15*2.5</f>
         <v>19.117647058823529</v>
       </c>
       <c r="J15" s="38">
+        <f t="shared" ref="J15:J17" si="4">K15*1.5</f>
+        <v>11.470588235294118</v>
+      </c>
+      <c r="K15" s="38">
         <v>7.6470588235294121</v>
       </c>
-      <c r="K15" s="74" t="s">
+      <c r="L15" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="L15" s="31"/>
-      <c r="N15" s="62" t="s">
+      <c r="M15" s="31"/>
+      <c r="O15" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="O15" s="57">
+      <c r="P15" s="57">
         <f>(0.5*16)/0.7</f>
         <v>11.428571428571429</v>
       </c>
-      <c r="P15" s="58">
-        <f>O15*$N$11</f>
+      <c r="Q15" s="58">
+        <f>P15*$O$11</f>
         <v>9.0090090090090094</v>
       </c>
-      <c r="Q15" s="59">
-        <f>(0.5*P14)/0.6</f>
+      <c r="R15" s="59">
+        <f>(0.5*Q14)/0.6</f>
         <v>10.51051051051051</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="48" t="s">
         <v>34</v>
       </c>
@@ -2118,22 +2116,26 @@
       <c r="F16" s="11"/>
       <c r="G16" s="6"/>
       <c r="H16" s="10">
+        <f t="shared" si="2"/>
+        <v>3.3613445378151252</v>
+      </c>
+      <c r="I16" s="10">
+        <f t="shared" si="3"/>
+        <v>1.6806722689075626</v>
+      </c>
+      <c r="J16" s="10">
         <f t="shared" si="4"/>
-        <v>3.3613445378151252</v>
-      </c>
-      <c r="I16" s="10">
-        <f t="shared" si="5"/>
-        <v>1.6806722689075626</v>
-      </c>
-      <c r="J16" s="10">
+        <v>1.0084033613445376</v>
+      </c>
+      <c r="K16" s="10">
         <v>0.67226890756302504</v>
       </c>
-      <c r="K16" s="76" t="s">
+      <c r="L16" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="L16" s="7"/>
-    </row>
-    <row r="17" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M16" s="7"/>
+    </row>
+    <row r="17" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
         <v>39</v>
       </c>
@@ -2144,120 +2146,109 @@
       <c r="F17" s="22"/>
       <c r="G17" s="8"/>
       <c r="H17" s="23">
+        <f t="shared" si="2"/>
+        <v>8.4033613445378172</v>
+      </c>
+      <c r="I17" s="23">
+        <f t="shared" si="3"/>
+        <v>4.2016806722689086</v>
+      </c>
+      <c r="J17" s="23">
         <f t="shared" si="4"/>
-        <v>8.4033613445378172</v>
-      </c>
-      <c r="I17" s="23">
-        <f t="shared" si="5"/>
-        <v>4.2016806722689086</v>
-      </c>
-      <c r="J17" s="23">
+        <v>2.5210084033613449</v>
+      </c>
+      <c r="K17" s="23">
         <v>1.6806722689075633</v>
       </c>
-      <c r="K17" s="75" t="s">
+      <c r="L17" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="L17" s="9"/>
-      <c r="N17" s="64" t="s">
+      <c r="M17" s="9"/>
+      <c r="O17" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="O17" s="50">
+      <c r="P17" s="50">
         <v>16</v>
       </c>
-      <c r="P17" s="69" t="s">
+      <c r="Q17" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="Q17" s="51">
+      <c r="R17" s="51">
         <f>(10*16)/68</f>
         <v>2.3529411764705883</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="36" x14ac:dyDescent="0.2">
-      <c r="N18" s="55" t="s">
+    <row r="18" spans="1:19" ht="36" x14ac:dyDescent="0.2">
+      <c r="O18" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="O18" s="65">
+      <c r="P18" s="65">
         <f>(16*0.5)/0.7</f>
         <v>11.428571428571429</v>
       </c>
-      <c r="P18" s="66" t="s">
+      <c r="Q18" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="Q18" s="54">
-        <f>(Q17*0.5)/0.7</f>
+      <c r="R18" s="54">
+        <f>(R17*0.5)/0.7</f>
         <v>1.6806722689075633</v>
       </c>
-      <c r="R18" s="70"/>
-    </row>
-    <row r="19" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="S18" s="70"/>
+    </row>
+    <row r="19" spans="1:19" ht="38.25" x14ac:dyDescent="0.2">
       <c r="H19" s="46"/>
-      <c r="N19" s="61"/>
-      <c r="O19" s="45">
-        <f>O17-O18</f>
+      <c r="O19" s="61"/>
+      <c r="P19" s="45">
+        <f>P17-P18</f>
         <v>4.5714285714285712</v>
       </c>
-      <c r="P19" s="67" t="s">
+      <c r="Q19" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="Q19" s="54">
-        <f>Q17-Q18</f>
+      <c r="R19" s="54">
+        <f>R17-R18</f>
         <v>0.67226890756302504</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N20" s="55" t="s">
+    <row r="20" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O20" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="O20" s="45">
+      <c r="P20" s="45">
         <f>(52*10)/68</f>
         <v>7.6470588235294121</v>
       </c>
-      <c r="P20" s="45"/>
-      <c r="Q20" s="54"/>
-    </row>
-    <row r="21" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="N21" s="56" t="s">
+      <c r="Q20" s="45"/>
+      <c r="R20" s="54"/>
+    </row>
+    <row r="21" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O21" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="O21" s="57">
+      <c r="P21" s="57">
         <f>(6*10)/68</f>
         <v>0.88235294117647056</v>
       </c>
-      <c r="P21" s="57"/>
-      <c r="Q21" s="68"/>
-    </row>
-    <row r="22" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="Q21" s="57"/>
+      <c r="R21" s="68"/>
+    </row>
+    <row r="22" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A10:B10"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="91" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100965EA08FA511AE4C9FFF632E6536ED13" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="abfa450e2c882fa05ec7f6a4b4016779">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a" xmlns:ns3="6cbc0c5a-d948-46e5-8624-1bad210f77c7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="53678093842f3275b6926b32e7a9c141" ns2:_="" ns3:_="">
     <xsd:import namespace="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a"/>
@@ -2480,32 +2471,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33AFEA7C-ECB0-4A51-9E17-02E120CDEEE9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="6cbc0c5a-d948-46e5-8624-1bad210f77c7"/>
-    <ds:schemaRef ds:uri="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C3833AD-3BAD-44F9-A428-5312EFC8FF4F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A161E6A-5B3F-4912-ADEE-71AD0FF6FC00}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2522,4 +2503,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C3833AD-3BAD-44F9-A428-5312EFC8FF4F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33AFEA7C-ECB0-4A51-9E17-02E120CDEEE9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6cbc0c5a-d948-46e5-8624-1bad210f77c7"/>
+    <ds:schemaRef ds:uri="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Biochemistry/Hydroxyproline Assay/RecipeSheets/ElrichsReagent_soln_recipe.xlsx
+++ b/Biochemistry/Hydroxyproline Assay/RecipeSheets/ElrichsReagent_soln_recipe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atya222\Documents\GitHub\Protocols\Biochemistry\Hydroxyproline Assay\RecipeSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402EB9EF-F12C-47F3-B84C-6C2B9B16D9E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E3AD57E-ECB4-4ED9-AE18-3747687A4B93}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -197,14 +197,14 @@
     <t>Units</t>
   </si>
   <si>
-    <t>mg</t>
-  </si>
-  <si>
     <t>mL</t>
   </si>
   <si>
     <t>Amount for
 15mL</t>
+  </si>
+  <si>
+    <t>g</t>
   </si>
 </sst>
 </file>
@@ -1713,7 +1713,7 @@
   <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1780,7 +1780,7 @@
         <v>32</v>
       </c>
       <c r="J4" s="43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K4" s="43" t="s">
         <v>33</v>
@@ -1814,7 +1814,7 @@
       <c r="J5" s="38"/>
       <c r="K5" s="38"/>
       <c r="L5" s="71" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M5" s="39"/>
       <c r="O5" s="52" t="s">
@@ -1844,7 +1844,7 @@
       <c r="J6" s="38"/>
       <c r="K6" s="38"/>
       <c r="L6" s="72" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M6" s="31"/>
       <c r="O6" s="52" t="s">
@@ -1874,7 +1874,7 @@
       <c r="J7" s="23"/>
       <c r="K7" s="23"/>
       <c r="L7" s="73" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M7" s="9"/>
       <c r="O7" s="55" t="s">
@@ -1996,7 +1996,7 @@
         <v>32</v>
       </c>
       <c r="J13" s="43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K13" s="43" t="s">
         <v>33</v>
@@ -2045,7 +2045,7 @@
         <v>0.88235294117647056</v>
       </c>
       <c r="L14" s="71" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M14" s="39"/>
       <c r="O14" s="55" t="s">
@@ -2075,7 +2075,7 @@
         <v>38.235294117647058</v>
       </c>
       <c r="I15" s="38">
-        <f t="shared" ref="I14:I17" si="3">K15*2.5</f>
+        <f t="shared" ref="I15:I17" si="3">K15*2.5</f>
         <v>19.117647058823529</v>
       </c>
       <c r="J15" s="38">
@@ -2086,7 +2086,7 @@
         <v>7.6470588235294121</v>
       </c>
       <c r="L15" s="72" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M15" s="31"/>
       <c r="O15" s="62" t="s">
@@ -2131,7 +2131,7 @@
         <v>0.67226890756302504</v>
       </c>
       <c r="L16" s="74" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M16" s="7"/>
     </row>
@@ -2161,7 +2161,7 @@
         <v>1.6806722689075633</v>
       </c>
       <c r="L17" s="73" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M17" s="9"/>
       <c r="O17" s="64" t="s">
@@ -2249,6 +2249,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100965EA08FA511AE4C9FFF632E6536ED13" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="abfa450e2c882fa05ec7f6a4b4016779">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a" xmlns:ns3="6cbc0c5a-d948-46e5-8624-1bad210f77c7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="53678093842f3275b6926b32e7a9c141" ns2:_="" ns3:_="">
     <xsd:import namespace="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a"/>
@@ -2471,22 +2486,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33AFEA7C-ECB0-4A51-9E17-02E120CDEEE9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6cbc0c5a-d948-46e5-8624-1bad210f77c7"/>
+    <ds:schemaRef ds:uri="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C3833AD-3BAD-44F9-A428-5312EFC8FF4F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A161E6A-5B3F-4912-ADEE-71AD0FF6FC00}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2503,29 +2528,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C3833AD-3BAD-44F9-A428-5312EFC8FF4F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33AFEA7C-ECB0-4A51-9E17-02E120CDEEE9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="6cbc0c5a-d948-46e5-8624-1bad210f77c7"/>
-    <ds:schemaRef ds:uri="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Biochemistry/Hydroxyproline Assay/RecipeSheets/ElrichsReagent_soln_recipe.xlsx
+++ b/Biochemistry/Hydroxyproline Assay/RecipeSheets/ElrichsReagent_soln_recipe.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20405"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atya222\Documents\GitHub\Protocols\Biochemistry\Hydroxyproline Assay\RecipeSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E3AD57E-ECB4-4ED9-AE18-3747687A4B93}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A325ECF8-C0C5-4C2F-BF18-AA160E6D3368}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1020,16 +1020,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1044,7 +1044,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2324100" y="161925"/>
+          <a:off x="5400675" y="152400"/>
           <a:ext cx="2266950" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1100,16 +1100,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1124,7 +1124,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2333625" y="2857500"/>
+          <a:off x="5419725" y="2867025"/>
           <a:ext cx="2266950" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1713,18 +1713,18 @@
   <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="A10" sqref="A10:M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.28515625" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.42578125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="4.42578125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="11.85546875" customWidth="1"/>
     <col min="9" max="11" width="10.85546875" customWidth="1"/>
     <col min="12" max="12" width="4.7109375" customWidth="1"/>
@@ -2242,28 +2242,13 @@
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A10:B10"/>
   </mergeCells>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="91" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100965EA08FA511AE4C9FFF632E6536ED13" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="abfa450e2c882fa05ec7f6a4b4016779">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a" xmlns:ns3="6cbc0c5a-d948-46e5-8624-1bad210f77c7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="53678093842f3275b6926b32e7a9c141" ns2:_="" ns3:_="">
     <xsd:import namespace="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a"/>
@@ -2486,32 +2471,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33AFEA7C-ECB0-4A51-9E17-02E120CDEEE9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="6cbc0c5a-d948-46e5-8624-1bad210f77c7"/>
-    <ds:schemaRef ds:uri="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C3833AD-3BAD-44F9-A428-5312EFC8FF4F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A161E6A-5B3F-4912-ADEE-71AD0FF6FC00}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2528,4 +2503,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C3833AD-3BAD-44F9-A428-5312EFC8FF4F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33AFEA7C-ECB0-4A51-9E17-02E120CDEEE9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6cbc0c5a-d948-46e5-8624-1bad210f77c7"/>
+    <ds:schemaRef ds:uri="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Biochemistry/Hydroxyproline Assay/RecipeSheets/ElrichsReagent_soln_recipe.xlsx
+++ b/Biochemistry/Hydroxyproline Assay/RecipeSheets/ElrichsReagent_soln_recipe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atya222\Documents\GitHub\Protocols\Biochemistry\Hydroxyproline Assay\RecipeSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A325ECF8-C0C5-4C2F-BF18-AA160E6D3368}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B511A5A5-B5C1-4DB7-99F8-D6851306CF8C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2249,6 +2249,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100965EA08FA511AE4C9FFF632E6536ED13" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="abfa450e2c882fa05ec7f6a4b4016779">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a" xmlns:ns3="6cbc0c5a-d948-46e5-8624-1bad210f77c7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="53678093842f3275b6926b32e7a9c141" ns2:_="" ns3:_="">
     <xsd:import namespace="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a"/>
@@ -2471,22 +2486,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33AFEA7C-ECB0-4A51-9E17-02E120CDEEE9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6cbc0c5a-d948-46e5-8624-1bad210f77c7"/>
+    <ds:schemaRef ds:uri="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C3833AD-3BAD-44F9-A428-5312EFC8FF4F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A161E6A-5B3F-4912-ADEE-71AD0FF6FC00}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2503,29 +2528,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C3833AD-3BAD-44F9-A428-5312EFC8FF4F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33AFEA7C-ECB0-4A51-9E17-02E120CDEEE9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="6cbc0c5a-d948-46e5-8624-1bad210f77c7"/>
-    <ds:schemaRef ds:uri="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>